--- a/public/example/Sambu - NO.1.F.O.T (P).xlsx
+++ b/public/example/Sambu - NO.1.F.O.T (P).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhunakoshi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhunakoshi/Documents/learning/smartship-new/public/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F96D8873-880E-9046-B1C9-55F5BEB1B911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C5B16F-0BCB-B642-A759-A54B23203E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="3">
   <si>
     <t>cm</t>
   </si>
   <si>
     <t>Trim</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -790,14 +793,30 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -818,14 +837,30 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
